--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU94" t="n">
         <v>0</v>
@@ -19782,7 +19782,7 @@
         <v>0.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU95" t="n">
         <v>0</v>
@@ -20188,7 +20188,7 @@
         <v>0.83</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU97" t="n">
         <v>0</v>
@@ -21403,7 +21403,7 @@
         <v>0</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT103" t="n">
         <v>2.5</v>
@@ -22421,7 +22421,7 @@
         <v>1.33</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU108" t="n">
         <v>1.53</v>
@@ -23636,7 +23636,7 @@
         <v>2.29</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT114" t="n">
         <v>1.42</v>
@@ -24448,7 +24448,7 @@
         <v>3</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT118" t="n">
         <v>1.5</v>
@@ -25260,7 +25260,7 @@
         <v>0</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT122" t="n">
         <v>1.63</v>
@@ -26681,7 +26681,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT129" t="n">
         <v>1.17</v>
@@ -28105,7 +28105,7 @@
         <v>1.6</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU136" t="n">
         <v>1.94</v>
@@ -28305,7 +28305,7 @@
         <v>2</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT137" t="n">
         <v>1</v>
@@ -28508,7 +28508,7 @@
         <v>1.25</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT138" t="n">
         <v>0.88</v>
@@ -28714,7 +28714,7 @@
         <v>0.88</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU139" t="n">
         <v>1.14</v>
@@ -29320,7 +29320,7 @@
         <v>1.33</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT142" t="n">
         <v>1.6</v>
@@ -29526,7 +29526,7 @@
         <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU143" t="n">
         <v>0.93</v>
@@ -31150,7 +31150,7 @@
         <v>1.17</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU151" t="n">
         <v>2.62</v>
@@ -32774,7 +32774,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU159" t="n">
         <v>1.63</v>
@@ -33180,7 +33180,7 @@
         <v>1.42</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU161" t="n">
         <v>1.72</v>
@@ -33383,7 +33383,7 @@
         <v>1.63</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU162" t="n">
         <v>2.02</v>
@@ -33786,7 +33786,7 @@
         <v>1.6</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT164" t="n">
         <v>1.33</v>
@@ -36022,7 +36022,7 @@
         <v>2.5</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU175" t="n">
         <v>2.32</v>
@@ -36831,7 +36831,7 @@
         <v>0.4</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT179" t="n">
         <v>0.33</v>
@@ -37846,7 +37846,7 @@
         <v>1.2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT186" t="n">
         <v>0.83</v>
@@ -38455,7 +38455,7 @@
         <v>1.83</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT187" t="n">
         <v>1.5</v>
@@ -39270,7 +39270,7 @@
         <v>1.88</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU191" t="n">
         <v>2.5</v>
@@ -39676,7 +39676,7 @@
         <v>1.63</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU193" t="n">
         <v>1.71</v>
@@ -39876,7 +39876,7 @@
         <v>2</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT194" t="n">
         <v>1.63</v>
@@ -40691,7 +40691,7 @@
         <v>1.5</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU198" t="n">
         <v>1.87</v>
@@ -40891,7 +40891,7 @@
         <v>1.86</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT199" t="n">
         <v>1.63</v>
@@ -41097,7 +41097,7 @@
         <v>1.63</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU200" t="n">
         <v>1.77</v>
@@ -41297,7 +41297,7 @@
         <v>2.14</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT201" t="n">
         <v>1.88</v>
@@ -41706,7 +41706,7 @@
         <v>2.36</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU203" t="n">
         <v>2.17</v>
@@ -41906,7 +41906,7 @@
         <v>3</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT204" t="n">
         <v>2.5</v>
@@ -42109,7 +42109,7 @@
         <v>2</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AT205" t="n">
         <v>1.6</v>
@@ -42312,7 +42312,7 @@
         <v>2.63</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT206" t="n">
         <v>2.2</v>
@@ -42518,7 +42518,7 @@
         <v>1.6</v>
       </c>
       <c r="AT207" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU207" t="n">
         <v>1.81</v>
@@ -42721,7 +42721,7 @@
         <v>2.2</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU208" t="n">
         <v>1.94</v>
@@ -42921,7 +42921,7 @@
         <v>2.46</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT209" t="n">
         <v>2.36</v>
@@ -43127,7 +43127,7 @@
         <v>2.5</v>
       </c>
       <c r="AT210" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU210" t="n">
         <v>2.16</v>
@@ -43179,6 +43179,412 @@
       </c>
       <c r="BK210" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5934139</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45055.66666666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>2</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>8</v>
+      </c>
+      <c r="R211" t="n">
+        <v>7</v>
+      </c>
+      <c r="S211" t="n">
+        <v>15</v>
+      </c>
+      <c r="T211" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V211" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5934138</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45056.66666666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>2</v>
+      </c>
+      <c r="K212" t="n">
+        <v>2</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>2</v>
+      </c>
+      <c r="N212" t="n">
+        <v>2</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['8', '11']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>2</v>
+      </c>
+      <c r="R212" t="n">
+        <v>3</v>
+      </c>
+      <c r="S212" t="n">
+        <v>5</v>
+      </c>
+      <c r="T212" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V212" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK212"/>
+  <dimension ref="A1:BK213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU94" t="n">
         <v>0</v>
@@ -21403,7 +21403,7 @@
         <v>0</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
         <v>2.5</v>
@@ -22421,7 +22421,7 @@
         <v>1.33</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU108" t="n">
         <v>1.53</v>
@@ -23636,7 +23636,7 @@
         <v>2.29</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT114" t="n">
         <v>1.42</v>
@@ -26681,7 +26681,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT129" t="n">
         <v>1.17</v>
@@ -28105,7 +28105,7 @@
         <v>1.6</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU136" t="n">
         <v>1.94</v>
@@ -29320,7 +29320,7 @@
         <v>1.33</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT142" t="n">
         <v>1.6</v>
@@ -31150,7 +31150,7 @@
         <v>1.17</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU151" t="n">
         <v>2.62</v>
@@ -33180,7 +33180,7 @@
         <v>1.42</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU161" t="n">
         <v>1.72</v>
@@ -33786,7 +33786,7 @@
         <v>1.6</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT164" t="n">
         <v>1.33</v>
@@ -36022,7 +36022,7 @@
         <v>2.5</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU175" t="n">
         <v>2.32</v>
@@ -37846,7 +37846,7 @@
         <v>1.2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38455,7 +38455,7 @@
         <v>1.83</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT187" t="n">
         <v>1.5</v>
@@ -39876,7 +39876,7 @@
         <v>2</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT194" t="n">
         <v>1.63</v>
@@ -40691,7 +40691,7 @@
         <v>1.5</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU198" t="n">
         <v>1.87</v>
@@ -41097,7 +41097,7 @@
         <v>1.63</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU200" t="n">
         <v>1.77</v>
@@ -41706,7 +41706,7 @@
         <v>2.36</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU203" t="n">
         <v>2.17</v>
@@ -42312,7 +42312,7 @@
         <v>2.63</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT206" t="n">
         <v>2.2</v>
@@ -42721,7 +42721,7 @@
         <v>2.2</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU208" t="n">
         <v>1.94</v>
@@ -42921,7 +42921,7 @@
         <v>2.46</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT209" t="n">
         <v>2.36</v>
@@ -43530,10 +43530,10 @@
         <v>1.8</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU212" t="n">
         <v>1.44</v>
@@ -43585,6 +43585,209 @@
       </c>
       <c r="BK212" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5934140</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45062.66666666666</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>5</v>
+      </c>
+      <c r="R213" t="n">
+        <v>3</v>
+      </c>
+      <c r="S213" t="n">
+        <v>8</v>
+      </c>
+      <c r="T213" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V213" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK213"/>
+  <dimension ref="A1:BK214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19782,7 +19782,7 @@
         <v>0.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU95" t="n">
         <v>0</v>
@@ -20188,7 +20188,7 @@
         <v>0.83</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU97" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>3</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT118" t="n">
         <v>1.5</v>
@@ -25260,7 +25260,7 @@
         <v>0</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT122" t="n">
         <v>1.63</v>
@@ -28305,7 +28305,7 @@
         <v>2</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT137" t="n">
         <v>1</v>
@@ -28508,7 +28508,7 @@
         <v>1.25</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT138" t="n">
         <v>0.88</v>
@@ -28714,7 +28714,7 @@
         <v>0.88</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU139" t="n">
         <v>1.14</v>
@@ -29526,7 +29526,7 @@
         <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU143" t="n">
         <v>0.93</v>
@@ -32774,7 +32774,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU159" t="n">
         <v>1.63</v>
@@ -33383,7 +33383,7 @@
         <v>1.63</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU162" t="n">
         <v>2.02</v>
@@ -36831,7 +36831,7 @@
         <v>0.4</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT179" t="n">
         <v>0.33</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT186" t="n">
         <v>0.83</v>
@@ -39270,7 +39270,7 @@
         <v>1.88</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU191" t="n">
         <v>2.5</v>
@@ -39676,7 +39676,7 @@
         <v>1.63</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU193" t="n">
         <v>1.71</v>
@@ -40891,7 +40891,7 @@
         <v>1.86</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT199" t="n">
         <v>1.63</v>
@@ -41297,7 +41297,7 @@
         <v>2.14</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT201" t="n">
         <v>1.88</v>
@@ -41906,7 +41906,7 @@
         <v>3</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT204" t="n">
         <v>2.5</v>
@@ -42109,7 +42109,7 @@
         <v>2</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT205" t="n">
         <v>1.6</v>
@@ -42518,7 +42518,7 @@
         <v>1.6</v>
       </c>
       <c r="AT207" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AU207" t="n">
         <v>1.81</v>
@@ -43127,7 +43127,7 @@
         <v>2.5</v>
       </c>
       <c r="AT210" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU210" t="n">
         <v>2.16</v>
@@ -43327,10 +43327,10 @@
         <v>2.2</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AT211" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU211" t="n">
         <v>2.54</v>
@@ -43788,6 +43788,209 @@
       </c>
       <c r="BK213" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5934141</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45063.66666666666</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2</v>
+      </c>
+      <c r="L214" t="n">
+        <v>4</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>4</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['23', '37', '76', '90+1']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>7</v>
+      </c>
+      <c r="R214" t="n">
+        <v>3</v>
+      </c>
+      <c r="S214" t="n">
+        <v>10</v>
+      </c>
+      <c r="T214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V214" t="n">
+        <v>5</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X214" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="383">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -862,13 +862,13 @@
     <t>['23', '37', '76', '90+1']</t>
   </si>
   <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['55', '66']</t>
   </si>
   <si>
     <t>['10', '27', '45', '49', '71', '77']</t>
-  </si>
-  <si>
-    <t>['68']</t>
   </si>
   <si>
     <t>['38', '90+3']</t>
@@ -1524,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK214"/>
+  <dimension ref="A1:BK215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1768,7 +1768,7 @@
         <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1959,7 +1959,7 @@
         <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2150,7 +2150,7 @@
         <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -20003,7 +20003,7 @@
         <v>0.83</v>
       </c>
       <c r="AT97">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU97">
         <v>0</v>
@@ -21146,7 +21146,7 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT103">
         <v>2.5</v>
@@ -22104,7 +22104,7 @@
         <v>1.33</v>
       </c>
       <c r="AT108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU108">
         <v>1.53</v>
@@ -24011,7 +24011,7 @@
         <v>3</v>
       </c>
       <c r="AS118">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT118">
         <v>1.5</v>
@@ -26112,7 +26112,7 @@
         <v>1.5</v>
       </c>
       <c r="AS129">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT129">
         <v>1.17</v>
@@ -27831,7 +27831,7 @@
         <v>1.25</v>
       </c>
       <c r="AS138">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT138">
         <v>0.88</v>
@@ -28025,7 +28025,7 @@
         <v>0.88</v>
       </c>
       <c r="AT139">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU139">
         <v>1.14</v>
@@ -30317,7 +30317,7 @@
         <v>1.17</v>
       </c>
       <c r="AT151">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU151">
         <v>2.62</v>
@@ -31845,7 +31845,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU159">
         <v>1.63</v>
@@ -32797,7 +32797,7 @@
         <v>1.6</v>
       </c>
       <c r="AS164">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT164">
         <v>1.33</v>
@@ -34901,7 +34901,7 @@
         <v>2.5</v>
       </c>
       <c r="AT175">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU175">
         <v>2.32</v>
@@ -36999,7 +36999,7 @@
         <v>1</v>
       </c>
       <c r="AS186">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT186">
         <v>0.83</v>
@@ -38339,7 +38339,7 @@
         <v>1.63</v>
       </c>
       <c r="AT193">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU193">
         <v>1.71</v>
@@ -38527,7 +38527,7 @@
         <v>2</v>
       </c>
       <c r="AS194">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT194">
         <v>1.63</v>
@@ -39482,7 +39482,7 @@
         <v>1.86</v>
       </c>
       <c r="AS199">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT199">
         <v>1.63</v>
@@ -39676,7 +39676,7 @@
         <v>1.63</v>
       </c>
       <c r="AT200">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU200">
         <v>1.77</v>
@@ -40249,7 +40249,7 @@
         <v>2.36</v>
       </c>
       <c r="AT203">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU203">
         <v>2.17</v>
@@ -40437,7 +40437,7 @@
         <v>3</v>
       </c>
       <c r="AS204">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT204">
         <v>2.5</v>
@@ -41392,7 +41392,7 @@
         <v>2.46</v>
       </c>
       <c r="AS209">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT209">
         <v>2.36</v>
@@ -41586,7 +41586,7 @@
         <v>2.5</v>
       </c>
       <c r="AT210">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU210">
         <v>2.16</v>
@@ -41777,7 +41777,7 @@
         <v>2.17</v>
       </c>
       <c r="AT211">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU211">
         <v>2.54</v>
@@ -41968,7 +41968,7 @@
         <v>1.5</v>
       </c>
       <c r="AT212">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU212">
         <v>1.44</v>
@@ -42156,7 +42156,7 @@
         <v>1.64</v>
       </c>
       <c r="AS213">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT213">
         <v>1.5</v>
@@ -42347,7 +42347,7 @@
         <v>2.36</v>
       </c>
       <c r="AS214">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT214">
         <v>2.17</v>
@@ -42402,6 +42402,197 @@
       </c>
       <c r="BK214">
         <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>6165085</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45087.66666666666</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215" t="s">
+        <v>139</v>
+      </c>
+      <c r="H215" t="s">
+        <v>127</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" t="s">
+        <v>282</v>
+      </c>
+      <c r="P215" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q215">
+        <v>2</v>
+      </c>
+      <c r="R215">
+        <v>4</v>
+      </c>
+      <c r="S215">
+        <v>6</v>
+      </c>
+      <c r="T215">
+        <v>1.95</v>
+      </c>
+      <c r="U215">
+        <v>2.4</v>
+      </c>
+      <c r="V215">
+        <v>6.5</v>
+      </c>
+      <c r="W215">
+        <v>1.33</v>
+      </c>
+      <c r="X215">
+        <v>3.25</v>
+      </c>
+      <c r="Y215">
+        <v>2.5</v>
+      </c>
+      <c r="Z215">
+        <v>1.5</v>
+      </c>
+      <c r="AA215">
+        <v>6.5</v>
+      </c>
+      <c r="AB215">
+        <v>1.11</v>
+      </c>
+      <c r="AC215">
+        <v>1.43</v>
+      </c>
+      <c r="AD215">
+        <v>4.8</v>
+      </c>
+      <c r="AE215">
+        <v>7.5</v>
+      </c>
+      <c r="AF215">
+        <v>1.03</v>
+      </c>
+      <c r="AG215">
+        <v>13</v>
+      </c>
+      <c r="AH215">
+        <v>1.24</v>
+      </c>
+      <c r="AI215">
+        <v>4.2</v>
+      </c>
+      <c r="AJ215">
+        <v>1.7</v>
+      </c>
+      <c r="AK215">
+        <v>2.04</v>
+      </c>
+      <c r="AL215">
+        <v>1.95</v>
+      </c>
+      <c r="AM215">
+        <v>1.8</v>
+      </c>
+      <c r="AN215">
+        <v>1.1</v>
+      </c>
+      <c r="AO215">
+        <v>1.19</v>
+      </c>
+      <c r="AP215">
+        <v>2.7</v>
+      </c>
+      <c r="AQ215">
+        <v>2.17</v>
+      </c>
+      <c r="AR215">
+        <v>2</v>
+      </c>
+      <c r="AS215">
+        <v>2.23</v>
+      </c>
+      <c r="AT215">
+        <v>1.85</v>
+      </c>
+      <c r="AU215">
+        <v>2.62</v>
+      </c>
+      <c r="AV215">
+        <v>1.55</v>
+      </c>
+      <c r="AW215">
+        <v>4.17</v>
+      </c>
+      <c r="AX215">
+        <v>1.29</v>
+      </c>
+      <c r="AY215">
+        <v>10</v>
+      </c>
+      <c r="AZ215">
+        <v>4.6</v>
+      </c>
+      <c r="BA215">
+        <v>1.22</v>
+      </c>
+      <c r="BB215">
+        <v>1.43</v>
+      </c>
+      <c r="BC215">
+        <v>1.73</v>
+      </c>
+      <c r="BD215">
+        <v>2.14</v>
+      </c>
+      <c r="BE215">
+        <v>2.75</v>
+      </c>
+      <c r="BF215">
+        <v>5</v>
+      </c>
+      <c r="BG215">
+        <v>7</v>
+      </c>
+      <c r="BH215">
+        <v>3</v>
+      </c>
+      <c r="BI215">
+        <v>7</v>
+      </c>
+      <c r="BJ215">
+        <v>8</v>
+      </c>
+      <c r="BK215">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
